--- a/Calculations.xlsx
+++ b/Calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Embedded\AnalogueWallClock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8765079-30AF-47AA-9959-74750349305E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1920CC3C-5244-4BA9-B89B-886D0B714D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{1830B923-2CF4-4331-BBA5-F160D5A4825B}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="46">
   <si>
     <t>VFr</t>
   </si>
@@ -151,10 +151,25 @@
     <t>Gain (max)</t>
   </si>
   <si>
-    <t>Rtrim</t>
-  </si>
-  <si>
-    <t>Vout</t>
+    <t>Manual LED</t>
+  </si>
+  <si>
+    <t>Red</t>
+  </si>
+  <si>
+    <t>Green</t>
+  </si>
+  <si>
+    <t>Blue</t>
+  </si>
+  <si>
+    <t>Supply</t>
+  </si>
+  <si>
+    <t>Vf</t>
+  </si>
+  <si>
+    <t>If</t>
   </si>
 </sst>
 </file>
@@ -163,7 +178,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="172" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="164" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -220,22 +235,23 @@
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
+    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="3"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="172" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
-    <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -582,10 +598,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7721304C-C0A1-4F4D-BBF1-C91133FA344E}">
-  <dimension ref="A1:W65"/>
+  <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A43" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="L61" sqref="L61"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -599,12 +615,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="G1" s="6" t="s">
+      <c r="G1" s="12" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="6"/>
-      <c r="I1" s="6"/>
-      <c r="J1" s="6"/>
+      <c r="H1" s="12"/>
+      <c r="I1" s="12"/>
+      <c r="J1" s="12"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="G2" s="1" t="s">
@@ -634,7 +650,7 @@
         <f>SUM(G3:I3)</f>
         <v>1</v>
       </c>
-      <c r="K3" s="7" t="s">
+      <c r="K3" s="6" t="s">
         <v>9</v>
       </c>
     </row>
@@ -655,7 +671,7 @@
         <f t="shared" ref="J4:J6" si="0">SUM(G4:I4)</f>
         <v>13.850415512465373</v>
       </c>
-      <c r="K4" s="7"/>
+      <c r="K4" s="6"/>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="G5" s="4">
@@ -671,7 +687,7 @@
         <f>SUM(G5:I5)</f>
         <v>7.4</v>
       </c>
-      <c r="K5" s="7" t="s">
+      <c r="K5" s="6" t="s">
         <v>10</v>
       </c>
     </row>
@@ -744,26 +760,26 @@
       <c r="D9">
         <v>3.2</v>
       </c>
-      <c r="G9" s="8">
+      <c r="G9" s="7">
         <v>715</v>
       </c>
-      <c r="H9" s="8">
+      <c r="H9" s="7">
         <v>1800</v>
       </c>
-      <c r="I9" s="8">
+      <c r="I9" s="7">
         <v>360</v>
       </c>
-      <c r="K9" s="8"/>
-      <c r="L9" s="8" t="s">
+      <c r="K9" s="7"/>
+      <c r="L9" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="M9" s="8" t="s">
+      <c r="M9" s="7" t="s">
         <v>36</v>
       </c>
       <c r="N9" t="s">
         <v>37</v>
       </c>
-      <c r="O9" s="8" t="s">
+      <c r="O9" s="7" t="s">
         <v>38</v>
       </c>
     </row>
@@ -780,16 +796,16 @@
       <c r="D10">
         <v>4</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="8">
         <v>140</v>
       </c>
-      <c r="H10" s="9">
+      <c r="H10" s="8">
         <v>330</v>
       </c>
-      <c r="I10" s="9">
+      <c r="I10" s="8">
         <v>70</v>
       </c>
-      <c r="K10" s="9"/>
+      <c r="K10" s="8"/>
       <c r="L10" s="5">
         <f>M10/N10*O10</f>
         <v>6.9291999999999998</v>
@@ -817,16 +833,16 @@
       <c r="D11">
         <v>4</v>
       </c>
-      <c r="G11" s="8">
+      <c r="G11" s="7">
         <v>250</v>
       </c>
-      <c r="H11" s="9">
+      <c r="H11" s="8">
         <v>350</v>
       </c>
-      <c r="I11" s="9">
+      <c r="I11" s="8">
         <v>80</v>
       </c>
-      <c r="K11" s="8"/>
+      <c r="K11" s="7"/>
       <c r="L11" s="5">
         <f>M11/N11*O11</f>
         <v>13.8584</v>
@@ -854,18 +870,18 @@
       <c r="D12">
         <v>4</v>
       </c>
-      <c r="G12" s="8">
+      <c r="G12" s="7">
         <v>700</v>
       </c>
-      <c r="H12" s="9">
+      <c r="H12" s="8">
         <v>1600</v>
       </c>
-      <c r="I12" s="9">
+      <c r="I12" s="8">
         <v>400</v>
       </c>
-      <c r="K12" s="8"/>
+      <c r="K12" s="7"/>
       <c r="L12" s="5"/>
-      <c r="M12" s="9"/>
+      <c r="M12" s="8"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A13" t="s">
@@ -880,18 +896,18 @@
       <c r="D13">
         <v>3.8</v>
       </c>
-      <c r="G13" s="8">
+      <c r="G13" s="7">
         <v>700</v>
       </c>
-      <c r="H13" s="9">
+      <c r="H13" s="8">
         <v>1200</v>
       </c>
-      <c r="I13" s="9">
+      <c r="I13" s="8">
         <v>400</v>
       </c>
-      <c r="K13" s="8"/>
-      <c r="L13" s="9"/>
-      <c r="M13" s="9"/>
+      <c r="K13" s="7"/>
+      <c r="L13" s="8"/>
+      <c r="M13" s="8"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A14" t="s">
@@ -906,18 +922,18 @@
       <c r="D14">
         <v>3.7</v>
       </c>
-      <c r="G14" s="8">
+      <c r="G14" s="7">
         <v>700</v>
       </c>
-      <c r="H14" s="9">
+      <c r="H14" s="8">
         <v>2300</v>
       </c>
-      <c r="I14" s="9">
+      <c r="I14" s="8">
         <v>460</v>
       </c>
-      <c r="K14" s="8"/>
-      <c r="L14" s="9"/>
-      <c r="M14" s="9"/>
+      <c r="K14" s="7"/>
+      <c r="L14" s="8"/>
+      <c r="M14" s="8"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A15" t="s">
@@ -932,18 +948,18 @@
       <c r="D15">
         <v>4</v>
       </c>
-      <c r="G15" s="8">
+      <c r="G15" s="7">
         <v>108</v>
       </c>
-      <c r="H15" s="9">
+      <c r="H15" s="8">
         <v>497</v>
       </c>
-      <c r="I15" s="9">
+      <c r="I15" s="8">
         <v>98</v>
       </c>
-      <c r="K15" s="8"/>
-      <c r="L15" s="9"/>
-      <c r="M15" s="9"/>
+      <c r="K15" s="7"/>
+      <c r="L15" s="8"/>
+      <c r="M15" s="8"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="A16" t="s">
@@ -958,18 +974,18 @@
       <c r="D16">
         <v>3.6</v>
       </c>
-      <c r="G16" s="8">
+      <c r="G16" s="7">
         <v>270</v>
       </c>
-      <c r="H16" s="9">
+      <c r="H16" s="8">
         <v>700</v>
       </c>
-      <c r="I16" s="9">
+      <c r="I16" s="8">
         <v>250</v>
       </c>
-      <c r="K16" s="8"/>
-      <c r="L16" s="9"/>
-      <c r="M16" s="9"/>
+      <c r="K16" s="7"/>
+      <c r="L16" s="8"/>
+      <c r="M16" s="8"/>
       <c r="P16" t="s">
         <v>31</v>
       </c>
@@ -1008,13 +1024,13 @@
       <c r="F18" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G18" s="11">
+      <c r="G18" s="10">
         <v>0.21260000000000001</v>
       </c>
-      <c r="H18" s="11">
+      <c r="H18" s="10">
         <v>0.71519999999999995</v>
       </c>
-      <c r="I18" s="11">
+      <c r="I18" s="10">
         <v>7.22E-2</v>
       </c>
       <c r="L18" t="s">
@@ -1065,31 +1081,31 @@
         <v>11</v>
       </c>
       <c r="G19" s="5">
-        <f>G$3*$J19</f>
+        <f t="shared" ref="G19:I20" si="3">G$3*$J19</f>
         <v>535.06711409395973</v>
       </c>
       <c r="H19" s="5">
-        <f>H$3*$J19</f>
+        <f t="shared" si="3"/>
         <v>1800</v>
       </c>
       <c r="I19" s="5">
-        <f>I$3*$J19</f>
+        <f t="shared" si="3"/>
         <v>181.71140939597316</v>
       </c>
       <c r="J19" s="5">
         <f>H9/$H$3</f>
         <v>2516.7785234899329</v>
       </c>
-      <c r="L19" s="12">
+      <c r="L19" s="11">
         <f>G19/G$9</f>
         <v>0.74834561411742617</v>
       </c>
-      <c r="M19" s="12">
-        <f t="shared" ref="M19:N19" si="3">H19/H$9</f>
-        <v>1</v>
-      </c>
-      <c r="N19" s="12">
-        <f t="shared" si="3"/>
+      <c r="M19" s="11">
+        <f t="shared" ref="M19:N19" si="4">H19/H$9</f>
+        <v>1</v>
+      </c>
+      <c r="N19" s="11">
+        <f t="shared" si="4"/>
         <v>0.50475391498881439</v>
       </c>
       <c r="U19">
@@ -1111,43 +1127,43 @@
         <v>3.2</v>
       </c>
       <c r="C20">
-        <f t="shared" ref="C20:D20" si="4">ROUNDUP(C19,1)</f>
+        <f t="shared" ref="C20:D20" si="5">ROUNDUP(C19,1)</f>
         <v>4.5999999999999996</v>
       </c>
       <c r="D20">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>4.5</v>
       </c>
       <c r="F20" t="s">
         <v>12</v>
       </c>
       <c r="G20" s="5">
-        <f>G$3*$J20</f>
+        <f t="shared" si="3"/>
         <v>98.095637583892625</v>
       </c>
       <c r="H20" s="5">
-        <f>H$3*$J20</f>
+        <f t="shared" si="3"/>
         <v>330</v>
       </c>
       <c r="I20" s="5">
-        <f>I$3*$J20</f>
+        <f t="shared" si="3"/>
         <v>33.31375838926175</v>
       </c>
       <c r="J20" s="5">
-        <f t="shared" ref="J20:J26" si="5">H10/$H$3</f>
+        <f t="shared" ref="J20:J26" si="6">H10/$H$3</f>
         <v>461.4093959731544</v>
       </c>
       <c r="K20" s="2"/>
-      <c r="L20" s="12">
+      <c r="L20" s="11">
         <f>G20/G$10</f>
         <v>0.70068312559923307</v>
       </c>
-      <c r="M20" s="12">
-        <f t="shared" ref="M20:N20" si="6">H20/H$10</f>
-        <v>1</v>
-      </c>
-      <c r="N20" s="12">
-        <f t="shared" si="6"/>
+      <c r="M20" s="11">
+        <f t="shared" ref="M20:N20" si="7">H20/H$10</f>
+        <v>1</v>
+      </c>
+      <c r="N20" s="11">
+        <f t="shared" si="7"/>
         <v>0.47591083413231072</v>
       </c>
     </row>
@@ -1156,32 +1172,32 @@
         <v>13</v>
       </c>
       <c r="G21" s="5">
-        <f t="shared" ref="G21:I26" si="7">G$3*$J21</f>
+        <f t="shared" ref="G21:I26" si="8">G$3*$J21</f>
         <v>104.04082774049218</v>
       </c>
       <c r="H21" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>350</v>
       </c>
       <c r="I21" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>35.332774049217001</v>
       </c>
       <c r="J21" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>489.3736017897092</v>
       </c>
       <c r="K21" s="2"/>
-      <c r="L21" s="12">
+      <c r="L21" s="11">
         <f>G21/G$11</f>
         <v>0.41616331096196868</v>
       </c>
-      <c r="M21" s="12">
-        <f t="shared" ref="M21:N21" si="8">H21/H$11</f>
-        <v>1</v>
-      </c>
-      <c r="N21" s="12">
-        <f t="shared" si="8"/>
+      <c r="M21" s="11">
+        <f t="shared" ref="M21:N21" si="9">H21/H$11</f>
+        <v>1</v>
+      </c>
+      <c r="N21" s="11">
+        <f t="shared" si="9"/>
         <v>0.44165967561521252</v>
       </c>
     </row>
@@ -1194,11 +1210,11 @@
         <v>3.8828633405639912</v>
       </c>
       <c r="C22" s="2">
-        <f t="shared" ref="C22:D22" si="9">10/((C20/0.895)-1)</f>
+        <f t="shared" ref="C22:D22" si="10">10/((C20/0.895)-1)</f>
         <v>2.4156545209176792</v>
       </c>
       <c r="D22" s="2">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>2.4826629680998611</v>
       </c>
       <c r="E22" s="2"/>
@@ -1206,32 +1222,32 @@
         <v>14</v>
       </c>
       <c r="G22" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>475.61521252796427</v>
       </c>
       <c r="H22" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1600</v>
       </c>
       <c r="I22" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>161.52125279642058</v>
       </c>
       <c r="J22" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>2237.136465324385</v>
       </c>
       <c r="K22" s="2"/>
-      <c r="L22" s="12">
+      <c r="L22" s="11">
         <f>G22/G$12</f>
         <v>0.67945030361137748</v>
       </c>
-      <c r="M22" s="12">
-        <f t="shared" ref="M22:N22" si="10">H22/H$12</f>
-        <v>1</v>
-      </c>
-      <c r="N22" s="12">
-        <f t="shared" si="10"/>
+      <c r="M22" s="11">
+        <f t="shared" ref="M22:N22" si="11">H22/H$12</f>
+        <v>1</v>
+      </c>
+      <c r="N22" s="11">
+        <f t="shared" si="11"/>
         <v>0.40380313199105144</v>
       </c>
     </row>
@@ -1252,32 +1268,32 @@
         <v>15</v>
       </c>
       <c r="G23" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>356.71140939597319</v>
       </c>
       <c r="H23" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>1200</v>
       </c>
       <c r="I23" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>121.14093959731544</v>
       </c>
       <c r="J23" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>1677.8523489932886</v>
       </c>
       <c r="K23" s="2"/>
-      <c r="L23" s="12">
+      <c r="L23" s="11">
         <f>G23/G$13</f>
         <v>0.50958772770853311</v>
       </c>
-      <c r="M23" s="12">
-        <f t="shared" ref="M23:N23" si="11">H23/H$13</f>
-        <v>1</v>
-      </c>
-      <c r="N23" s="12">
-        <f t="shared" si="11"/>
+      <c r="M23" s="11">
+        <f t="shared" ref="M23:N23" si="12">H23/H$13</f>
+        <v>1</v>
+      </c>
+      <c r="N23" s="11">
+        <f t="shared" si="12"/>
         <v>0.30285234899328861</v>
       </c>
     </row>
@@ -1302,32 +1318,32 @@
         <v>16</v>
       </c>
       <c r="G24" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>683.69686800894863</v>
       </c>
       <c r="H24" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>2300</v>
       </c>
       <c r="I24" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>232.1868008948546</v>
       </c>
       <c r="J24" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>3215.8836689038035</v>
       </c>
       <c r="K24" s="2"/>
-      <c r="L24" s="12">
+      <c r="L24" s="11">
         <f>G24/G$14</f>
         <v>0.97670981144135516</v>
       </c>
-      <c r="M24" s="12">
-        <f t="shared" ref="M24:N24" si="12">H24/H$14</f>
-        <v>1</v>
-      </c>
-      <c r="N24" s="12">
-        <f t="shared" si="12"/>
+      <c r="M24" s="11">
+        <f t="shared" ref="M24:N24" si="13">H24/H$14</f>
+        <v>1</v>
+      </c>
+      <c r="N24" s="11">
+        <f t="shared" si="13"/>
         <v>0.50475391498881439</v>
       </c>
     </row>
@@ -1336,44 +1352,44 @@
         <v>20</v>
       </c>
       <c r="G25" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>147.73797539149891</v>
       </c>
       <c r="H25" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>497</v>
       </c>
       <c r="I25" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>50.172539149888152</v>
       </c>
       <c r="J25" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>694.9105145413871</v>
       </c>
       <c r="K25" s="2"/>
-      <c r="L25" s="12">
+      <c r="L25" s="11">
         <f>G25/G$15</f>
         <v>1.3679442165879527</v>
       </c>
-      <c r="M25" s="12">
-        <f t="shared" ref="M25:N25" si="13">H25/H$15</f>
-        <v>1</v>
-      </c>
-      <c r="N25" s="12">
-        <f t="shared" si="13"/>
+      <c r="M25" s="11">
+        <f t="shared" ref="M25:N25" si="14">H25/H$15</f>
+        <v>1</v>
+      </c>
+      <c r="N25" s="11">
+        <f t="shared" si="14"/>
         <v>0.51196468520294036</v>
       </c>
-      <c r="P25" s="10">
+      <c r="P25" s="9">
         <f>1/$L25*L25</f>
         <v>1</v>
       </c>
-      <c r="Q25" s="10">
-        <f t="shared" ref="Q25:R25" si="14">1/$L25*M25</f>
+      <c r="Q25" s="9">
+        <f t="shared" ref="Q25:R25" si="15">1/$L25*M25</f>
         <v>0.7310239612652395</v>
       </c>
-      <c r="R25" s="10">
-        <f t="shared" si="14"/>
+      <c r="R25" s="9">
+        <f t="shared" si="15"/>
         <v>0.37425845220496479</v>
       </c>
     </row>
@@ -1386,11 +1402,11 @@
         <v>2.4</v>
       </c>
       <c r="C26" s="1">
-        <f t="shared" ref="C26:D26" si="15">MIN(C9:C16)</f>
+        <f t="shared" ref="C26:D26" si="16">MIN(C9:C16)</f>
         <v>3.2</v>
       </c>
       <c r="D26" s="1">
-        <f t="shared" si="15"/>
+        <f t="shared" si="16"/>
         <v>3.2</v>
       </c>
       <c r="E26" s="1"/>
@@ -1398,32 +1414,32 @@
         <v>21</v>
       </c>
       <c r="G26" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>208.08165548098435</v>
       </c>
       <c r="H26" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>700</v>
       </c>
       <c r="I26" s="5">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>70.665548098434002</v>
       </c>
       <c r="J26" s="5">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>978.7472035794184</v>
       </c>
       <c r="K26" s="2"/>
-      <c r="L26" s="12">
+      <c r="L26" s="11">
         <f>G26/G$16</f>
         <v>0.77067279807771982</v>
       </c>
-      <c r="M26" s="12">
-        <f t="shared" ref="M26:N26" si="16">H26/H$16</f>
-        <v>1</v>
-      </c>
-      <c r="N26" s="12">
-        <f t="shared" si="16"/>
+      <c r="M26" s="11">
+        <f t="shared" ref="M26:N26" si="17">H26/H$16</f>
+        <v>1</v>
+      </c>
+      <c r="N26" s="11">
+        <f t="shared" si="17"/>
         <v>0.28266219239373602</v>
       </c>
     </row>
@@ -1436,11 +1452,11 @@
         <v>2.81</v>
       </c>
       <c r="C27">
-        <f t="shared" ref="C27:D27" si="17">C26+0.41</f>
+        <f t="shared" ref="C27:D27" si="18">C26+0.41</f>
         <v>3.6100000000000003</v>
       </c>
       <c r="D27">
-        <f t="shared" si="17"/>
+        <f t="shared" si="18"/>
         <v>3.6100000000000003</v>
       </c>
       <c r="G27" s="2"/>
@@ -1459,11 +1475,11 @@
         <v>3</v>
       </c>
       <c r="C28">
-        <f t="shared" ref="C28:D28" si="18">IF(ROUNDUP(C27,1)&lt;3,3,ROUNDUP(C27,1))</f>
+        <f t="shared" ref="C28:D28" si="19">IF(ROUNDUP(C27,1)&lt;3,3,ROUNDUP(C27,1))</f>
         <v>3.7</v>
       </c>
       <c r="D28">
-        <f t="shared" si="18"/>
+        <f t="shared" si="19"/>
         <v>3.7</v>
       </c>
     </row>
@@ -1471,16 +1487,16 @@
       <c r="F29" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G29" s="11">
+      <c r="G29" s="10">
         <f>G5/$J$5</f>
         <v>0.28378378378378377</v>
       </c>
-      <c r="H29" s="11">
-        <f t="shared" ref="H29:I29" si="19">H5/$J$5</f>
+      <c r="H29" s="10">
+        <f t="shared" ref="H29:I29" si="20">H5/$J$5</f>
         <v>0.58108108108108103</v>
       </c>
-      <c r="I29" s="11">
-        <f t="shared" si="19"/>
+      <c r="I29" s="10">
+        <f t="shared" si="20"/>
         <v>0.13513513513513511</v>
       </c>
       <c r="J29" s="3"/>
@@ -1494,11 +1510,11 @@
         <v>4.2517814726840859</v>
       </c>
       <c r="C30" s="2">
-        <f t="shared" ref="C30:D30" si="20">10/((C28/0.895)-1)</f>
+        <f t="shared" ref="C30:D30" si="21">10/((C28/0.895)-1)</f>
         <v>3.190730837789661</v>
       </c>
       <c r="D30" s="2">
-        <f t="shared" si="20"/>
+        <f t="shared" si="21"/>
         <v>3.190730837789661</v>
       </c>
       <c r="E30" s="2"/>
@@ -1510,39 +1526,39 @@
         <v>879.06976744186045</v>
       </c>
       <c r="H30" s="5">
-        <f t="shared" ref="H30:I37" si="21">H$29*$J30</f>
+        <f t="shared" ref="H30:I37" si="22">H$29*$J30</f>
         <v>1799.9999999999998</v>
       </c>
       <c r="I30" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>418.60465116279062</v>
       </c>
       <c r="J30" s="5">
         <f>H19/$H$29</f>
         <v>3097.6744186046512</v>
       </c>
-      <c r="L30" s="12">
+      <c r="L30" s="11">
         <f>G30/G$9</f>
         <v>1.2294682062123923</v>
       </c>
-      <c r="M30" s="12">
-        <f t="shared" ref="M30" si="22">H30/H$9</f>
+      <c r="M30" s="11">
+        <f t="shared" ref="M30" si="23">H30/H$9</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="N30" s="12">
-        <f t="shared" ref="N30" si="23">I30/I$9</f>
+      <c r="N30" s="11">
+        <f t="shared" ref="N30" si="24">I30/I$9</f>
         <v>1.1627906976744184</v>
       </c>
-      <c r="P30" s="10">
+      <c r="P30" s="9">
         <f>1/$L30*L30</f>
         <v>1</v>
       </c>
-      <c r="Q30" s="10">
-        <f t="shared" ref="Q30:Q31" si="24">1/$L30*M30</f>
+      <c r="Q30" s="9">
+        <f t="shared" ref="Q30:Q31" si="25">1/$L30*M30</f>
         <v>0.81335978835978828</v>
       </c>
-      <c r="R30" s="10">
-        <f t="shared" ref="R30:R31" si="25">1/$L30*N30</f>
+      <c r="R30" s="9">
+        <f t="shared" ref="R30:R31" si="26">1/$L30*N30</f>
         <v>0.9457671957671957</v>
       </c>
     </row>
@@ -1555,11 +1571,11 @@
         <v>351.781472684086</v>
       </c>
       <c r="C31" s="2">
-        <f t="shared" ref="C31:D31" si="26">(C30-C23)*1000</f>
+        <f t="shared" ref="C31:D31" si="27">(C30-C23)*1000</f>
         <v>760.73083778966088</v>
       </c>
       <c r="D31" s="2">
-        <f t="shared" si="26"/>
+        <f t="shared" si="27"/>
         <v>760.73083778966088</v>
       </c>
       <c r="E31" s="2"/>
@@ -1571,40 +1587,40 @@
         <v>161.16279069767441</v>
       </c>
       <c r="H31" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>330</v>
       </c>
       <c r="I31" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>76.744186046511615</v>
       </c>
       <c r="J31" s="5">
-        <f t="shared" ref="J31:J37" si="27">H20/$H$29</f>
+        <f t="shared" ref="J31:J37" si="28">H20/$H$29</f>
         <v>567.90697674418607</v>
       </c>
       <c r="K31" s="2"/>
-      <c r="L31" s="12">
+      <c r="L31" s="11">
         <f>G31/G$10</f>
         <v>1.1511627906976745</v>
       </c>
-      <c r="M31" s="12">
-        <f t="shared" ref="M31" si="28">H31/H$10</f>
-        <v>1</v>
-      </c>
-      <c r="N31" s="12">
-        <f t="shared" ref="N31" si="29">I31/I$10</f>
+      <c r="M31" s="11">
+        <f t="shared" ref="M31" si="29">H31/H$10</f>
+        <v>1</v>
+      </c>
+      <c r="N31" s="11">
+        <f t="shared" ref="N31" si="30">I31/I$10</f>
         <v>1.096345514950166</v>
       </c>
-      <c r="P31" s="10">
+      <c r="P31" s="9">
         <f>1/$L31*L31</f>
         <v>1</v>
       </c>
-      <c r="Q31" s="10">
-        <f t="shared" si="24"/>
+      <c r="Q31" s="9">
+        <f t="shared" si="25"/>
         <v>0.86868686868686862</v>
       </c>
-      <c r="R31" s="10">
-        <f t="shared" si="25"/>
+      <c r="R31" s="9">
+        <f t="shared" si="26"/>
         <v>0.95238095238095222</v>
       </c>
     </row>
@@ -1615,266 +1631,305 @@
         <v>13</v>
       </c>
       <c r="G32" s="5">
-        <f t="shared" ref="G32:G37" si="30">G$29*$J32</f>
+        <f t="shared" ref="G32:G37" si="31">G$29*$J32</f>
         <v>170.93023255813955</v>
       </c>
       <c r="H32" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>350</v>
       </c>
       <c r="I32" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>81.395348837209298</v>
       </c>
       <c r="J32" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>602.32558139534888</v>
       </c>
       <c r="K32" s="2"/>
-      <c r="L32" s="12">
+      <c r="L32" s="11">
         <f>G32/G$11</f>
         <v>0.6837209302325582</v>
       </c>
-      <c r="M32" s="12">
-        <f t="shared" ref="M32" si="31">H32/H$11</f>
-        <v>1</v>
-      </c>
-      <c r="N32" s="12">
-        <f t="shared" ref="N32" si="32">I32/I$11</f>
+      <c r="M32" s="11">
+        <f t="shared" ref="M32" si="32">H32/H$11</f>
+        <v>1</v>
+      </c>
+      <c r="N32" s="11">
+        <f t="shared" ref="N32" si="33">I32/I$11</f>
         <v>1.0174418604651163</v>
       </c>
-      <c r="P32" s="10">
-        <f t="shared" ref="P32:Q32" si="33">1/$N$32*L32</f>
+      <c r="P32" s="9">
+        <f t="shared" ref="P32:Q32" si="34">1/$N$32*L32</f>
         <v>0.67200000000000004</v>
       </c>
-      <c r="Q32" s="10">
-        <f t="shared" si="33"/>
+      <c r="Q32" s="9">
+        <f t="shared" si="34"/>
         <v>0.98285714285714287</v>
       </c>
-      <c r="R32" s="10">
+      <c r="R32" s="9">
         <f>1/$N$32*N32</f>
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="33" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B33">
+        <v>700</v>
+      </c>
+      <c r="C33">
+        <v>1200</v>
+      </c>
+      <c r="D33">
+        <v>400</v>
+      </c>
       <c r="F33" t="s">
         <v>14</v>
       </c>
       <c r="G33" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>781.39534883720933</v>
       </c>
       <c r="H33" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1600</v>
       </c>
       <c r="I33" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>372.09302325581393</v>
       </c>
       <c r="J33" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2753.4883720930234</v>
       </c>
       <c r="K33" s="2"/>
-      <c r="L33" s="12">
+      <c r="L33" s="11">
         <f>G33/G$12</f>
         <v>1.1162790697674418</v>
       </c>
-      <c r="M33" s="12">
-        <f t="shared" ref="M33" si="34">H33/H$12</f>
-        <v>1</v>
-      </c>
-      <c r="N33" s="12">
-        <f t="shared" ref="N33" si="35">I33/I$12</f>
+      <c r="M33" s="11">
+        <f t="shared" ref="M33" si="35">H33/H$12</f>
+        <v>1</v>
+      </c>
+      <c r="N33" s="11">
+        <f t="shared" ref="N33" si="36">I33/I$12</f>
         <v>0.93023255813953487</v>
       </c>
-      <c r="P33" s="10">
+      <c r="P33" s="9">
         <f>1/$L33*L33</f>
         <v>1</v>
       </c>
-      <c r="Q33" s="10">
-        <f t="shared" ref="Q33" si="36">1/$L33*M33</f>
+      <c r="Q33" s="9">
+        <f t="shared" ref="Q33" si="37">1/$L33*M33</f>
         <v>0.89583333333333337</v>
       </c>
-      <c r="R33" s="10">
-        <f t="shared" ref="R33" si="37">1/$L33*N33</f>
+      <c r="R33" s="9">
+        <f t="shared" ref="R33" si="38">1/$L33*N33</f>
         <v>0.83333333333333337</v>
       </c>
     </row>
-    <row r="34" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="34" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B34">
+        <v>600</v>
+      </c>
+      <c r="C34">
+        <v>1200</v>
+      </c>
+      <c r="D34">
+        <v>200</v>
+      </c>
       <c r="F34" t="s">
         <v>15</v>
       </c>
       <c r="G34" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>586.04651162790697</v>
       </c>
       <c r="H34" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>1200</v>
       </c>
       <c r="I34" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>279.06976744186045</v>
       </c>
       <c r="J34" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>2065.1162790697676</v>
       </c>
       <c r="K34" s="2"/>
-      <c r="L34" s="12">
+      <c r="L34" s="11">
         <f>G34/G$13</f>
         <v>0.83720930232558133</v>
       </c>
-      <c r="M34" s="12">
-        <f t="shared" ref="M34" si="38">H34/H$13</f>
-        <v>1</v>
-      </c>
-      <c r="N34" s="12">
-        <f t="shared" ref="N34" si="39">I34/I$13</f>
+      <c r="M34" s="11">
+        <f t="shared" ref="M34" si="39">H34/H$13</f>
+        <v>1</v>
+      </c>
+      <c r="N34" s="11">
+        <f t="shared" ref="N34" si="40">I34/I$13</f>
         <v>0.69767441860465107</v>
       </c>
     </row>
-    <row r="35" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="35" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B35">
+        <v>300</v>
+      </c>
+      <c r="C35">
+        <v>600</v>
+      </c>
+      <c r="D35">
+        <v>100</v>
+      </c>
       <c r="F35" t="s">
         <v>16</v>
       </c>
       <c r="G35" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>1123.2558139534885</v>
       </c>
       <c r="H35" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>2300</v>
       </c>
       <c r="I35" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>534.88372093023258</v>
       </c>
       <c r="J35" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>3958.1395348837214</v>
       </c>
       <c r="K35" s="2"/>
-      <c r="L35" s="12">
+      <c r="L35" s="11">
         <f>G35/G$14</f>
         <v>1.6046511627906979</v>
       </c>
-      <c r="M35" s="12">
-        <f t="shared" ref="M35" si="40">H35/H$14</f>
-        <v>1</v>
-      </c>
-      <c r="N35" s="12">
-        <f t="shared" ref="N35" si="41">I35/I$14</f>
+      <c r="M35" s="11">
+        <f t="shared" ref="M35" si="41">H35/H$14</f>
+        <v>1</v>
+      </c>
+      <c r="N35" s="11">
+        <f t="shared" ref="N35" si="42">I35/I$14</f>
         <v>1.1627906976744187</v>
       </c>
-      <c r="P35" s="10">
+      <c r="P35" s="9">
         <f>1/$L35*L35</f>
         <v>0.99999999999999989</v>
       </c>
-      <c r="Q35" s="10">
-        <f t="shared" ref="Q35:Q37" si="42">1/$L35*M35</f>
+      <c r="Q35" s="9">
+        <f t="shared" ref="Q35:Q37" si="43">1/$L35*M35</f>
         <v>0.62318840579710133</v>
       </c>
-      <c r="R35" s="10">
-        <f t="shared" ref="R35:R37" si="43">1/$L35*N35</f>
+      <c r="R35" s="9">
+        <f t="shared" ref="R35:R37" si="44">1/$L35*N35</f>
         <v>0.72463768115942018</v>
       </c>
     </row>
-    <row r="36" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="36" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="B36">
+        <f>B35/B33</f>
+        <v>0.42857142857142855</v>
+      </c>
+      <c r="C36">
+        <f t="shared" ref="C36:D36" si="45">C35/C33</f>
+        <v>0.5</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="45"/>
+        <v>0.25</v>
+      </c>
       <c r="F36" t="s">
         <v>20</v>
       </c>
       <c r="G36" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>242.72093023255815</v>
       </c>
       <c r="H36" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>497</v>
       </c>
       <c r="I36" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>115.58139534883721</v>
       </c>
       <c r="J36" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>855.30232558139539</v>
       </c>
       <c r="K36" s="2"/>
-      <c r="L36" s="12">
+      <c r="L36" s="11">
         <f>G36/G$15</f>
         <v>2.2474160206718348</v>
       </c>
-      <c r="M36" s="12">
-        <f t="shared" ref="M36" si="44">H36/H$15</f>
-        <v>1</v>
-      </c>
-      <c r="N36" s="12">
-        <f t="shared" ref="N36" si="45">I36/I$15</f>
+      <c r="M36" s="11">
+        <f t="shared" ref="M36" si="46">H36/H$15</f>
+        <v>1</v>
+      </c>
+      <c r="N36" s="11">
+        <f t="shared" ref="N36" si="47">I36/I$15</f>
         <v>1.1794019933554818</v>
       </c>
-      <c r="P36" s="10">
+      <c r="P36" s="9">
         <f>1/$L36*L36</f>
         <v>1</v>
       </c>
-      <c r="Q36" s="10">
-        <f t="shared" si="42"/>
+      <c r="Q36" s="9">
+        <f t="shared" si="43"/>
         <v>0.44495544696751937</v>
       </c>
-      <c r="R36" s="10">
-        <f t="shared" si="43"/>
+      <c r="R36" s="9">
+        <f t="shared" si="44"/>
         <v>0.52478134110787167</v>
       </c>
     </row>
-    <row r="37" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="37" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="F37" t="s">
         <v>21</v>
       </c>
       <c r="G37" s="5">
-        <f t="shared" si="30"/>
+        <f t="shared" si="31"/>
         <v>341.8604651162791</v>
       </c>
       <c r="H37" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>700</v>
       </c>
       <c r="I37" s="5">
-        <f t="shared" si="21"/>
+        <f t="shared" si="22"/>
         <v>162.7906976744186</v>
       </c>
       <c r="J37" s="5">
-        <f t="shared" si="27"/>
+        <f t="shared" si="28"/>
         <v>1204.6511627906978</v>
       </c>
       <c r="K37" s="2"/>
-      <c r="L37" s="12">
+      <c r="L37" s="11">
         <f>G37/G$16</f>
         <v>1.2661498708010337</v>
       </c>
-      <c r="M37" s="12">
-        <f t="shared" ref="M37" si="46">H37/H$16</f>
-        <v>1</v>
-      </c>
-      <c r="N37" s="12">
-        <f t="shared" ref="N37" si="47">I37/I$16</f>
+      <c r="M37" s="11">
+        <f t="shared" ref="M37" si="48">H37/H$16</f>
+        <v>1</v>
+      </c>
+      <c r="N37" s="11">
+        <f t="shared" ref="N37" si="49">I37/I$16</f>
         <v>0.65116279069767435</v>
       </c>
-      <c r="P37" s="10">
+      <c r="P37" s="9">
         <f>1/$L37*L37</f>
         <v>1</v>
       </c>
-      <c r="Q37" s="10">
-        <f t="shared" si="42"/>
+      <c r="Q37" s="9">
+        <f t="shared" si="43"/>
         <v>0.78979591836734686</v>
       </c>
-      <c r="R37" s="10">
-        <f t="shared" si="43"/>
+      <c r="R37" s="9">
+        <f t="shared" si="44"/>
         <v>0.51428571428571423</v>
       </c>
     </row>
-    <row r="38" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="38" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="G38" s="2"/>
       <c r="H38" s="2"/>
       <c r="I38" s="2"/>
@@ -1884,34 +1939,65 @@
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
     </row>
-    <row r="40" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="40" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A40" t="s">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40" t="s">
+        <v>44</v>
+      </c>
+      <c r="D40" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" t="s">
+        <v>4</v>
+      </c>
       <c r="F40" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G40" s="11">
+      <c r="G40" s="10">
         <f>G6/$J$6</f>
         <v>0.26114649681528662</v>
       </c>
-      <c r="H40" s="11">
-        <f t="shared" ref="H40:I40" si="48">H6/$J$6</f>
+      <c r="H40" s="10">
+        <f t="shared" ref="H40:I40" si="50">H6/$J$6</f>
         <v>0.67515923566878977</v>
       </c>
-      <c r="I40" s="11">
-        <f t="shared" si="48"/>
+      <c r="I40" s="10">
+        <f t="shared" si="50"/>
         <v>6.3694267515923567E-2</v>
       </c>
       <c r="J40" s="3"/>
     </row>
-    <row r="41" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="41" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A41" t="s">
+        <v>40</v>
+      </c>
+      <c r="B41">
+        <v>3.2</v>
+      </c>
+      <c r="C41">
+        <v>1.95</v>
+      </c>
+      <c r="D41" s="13">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="E41" s="4">
+        <f>C41/D41</f>
+        <v>229.41176470588232</v>
+      </c>
       <c r="F41" t="s">
         <v>11</v>
       </c>
       <c r="G41" s="5">
-        <f t="shared" ref="G41:I48" si="49">G$40*$J41</f>
+        <f t="shared" ref="G41:I48" si="51">G$40*$J41</f>
         <v>696.2264150943397</v>
       </c>
       <c r="H41" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1800</v>
       </c>
       <c r="I41" s="5">
@@ -1922,283 +2008,315 @@
         <f>H9/$H$40</f>
         <v>2666.0377358490568</v>
       </c>
-      <c r="L41" s="12">
+      <c r="L41" s="11">
         <f>G41/G$9</f>
         <v>0.97374323789418138</v>
       </c>
-      <c r="M41" s="12">
-        <f t="shared" ref="M41" si="50">H41/H$9</f>
-        <v>1</v>
-      </c>
-      <c r="N41" s="12">
-        <f t="shared" ref="N41" si="51">I41/I$9</f>
+      <c r="M41" s="11">
+        <f t="shared" ref="M41" si="52">H41/H$9</f>
+        <v>1</v>
+      </c>
+      <c r="N41" s="11">
+        <f t="shared" ref="N41" si="53">I41/I$9</f>
         <v>0.47169811320754723</v>
       </c>
     </row>
-    <row r="42" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="42" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A42" t="s">
+        <v>41</v>
+      </c>
+      <c r="B42">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="C42">
+        <v>3.1</v>
+      </c>
+      <c r="D42" s="13">
+        <v>0.01</v>
+      </c>
+      <c r="E42" s="4">
+        <f t="shared" ref="E42:E43" si="54">C42/D42</f>
+        <v>310</v>
+      </c>
       <c r="F42" t="s">
         <v>12</v>
       </c>
       <c r="G42" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>127.64150943396227</v>
       </c>
       <c r="H42" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>330</v>
       </c>
       <c r="I42" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>31.132075471698116</v>
       </c>
       <c r="J42" s="5">
-        <f t="shared" ref="J42:J48" si="52">H10/$H$40</f>
+        <f t="shared" ref="J42:J48" si="55">H10/$H$40</f>
         <v>488.77358490566041</v>
       </c>
-      <c r="L42" s="12">
+      <c r="L42" s="11">
         <f>G42/G$10</f>
         <v>0.91172506738544479</v>
       </c>
-      <c r="M42" s="12">
-        <f t="shared" ref="M42" si="53">H42/H$10</f>
-        <v>1</v>
-      </c>
-      <c r="N42" s="12">
-        <f t="shared" ref="N42" si="54">I42/I$10</f>
+      <c r="M42" s="11">
+        <f t="shared" ref="M42" si="56">H42/H$10</f>
+        <v>1</v>
+      </c>
+      <c r="N42" s="11">
+        <f t="shared" ref="N42" si="57">I42/I$10</f>
         <v>0.44474393530997308</v>
       </c>
     </row>
-    <row r="43" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="43" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A43" t="s">
+        <v>42</v>
+      </c>
+      <c r="B43">
+        <v>5</v>
+      </c>
+      <c r="C43">
+        <v>2.95</v>
+      </c>
+      <c r="D43" s="13">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E43" s="4">
+        <f t="shared" si="54"/>
+        <v>590</v>
+      </c>
       <c r="F43" t="s">
         <v>13</v>
       </c>
       <c r="G43" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>135.37735849056605</v>
       </c>
       <c r="H43" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>350</v>
       </c>
       <c r="I43" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>33.018867924528301</v>
       </c>
       <c r="J43" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>518.39622641509436</v>
       </c>
-      <c r="L43" s="12">
+      <c r="L43" s="11">
         <f>G43/G$11</f>
         <v>0.54150943396226425</v>
       </c>
-      <c r="M43" s="12">
-        <f t="shared" ref="M43" si="55">H43/H$11</f>
-        <v>1</v>
-      </c>
-      <c r="N43" s="12">
-        <f t="shared" ref="N43" si="56">I43/I$11</f>
+      <c r="M43" s="11">
+        <f t="shared" ref="M43" si="58">H43/H$11</f>
+        <v>1</v>
+      </c>
+      <c r="N43" s="11">
+        <f t="shared" ref="N43" si="59">I43/I$11</f>
         <v>0.41273584905660377</v>
       </c>
     </row>
-    <row r="44" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="44" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="F44" t="s">
         <v>14</v>
       </c>
       <c r="G44" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>618.86792452830196</v>
       </c>
       <c r="H44" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1600</v>
       </c>
       <c r="I44" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>150.9433962264151</v>
       </c>
       <c r="J44" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>2369.8113207547171</v>
       </c>
-      <c r="L44" s="12">
+      <c r="L44" s="11">
         <f>G44/G$12</f>
         <v>0.88409703504043136</v>
       </c>
-      <c r="M44" s="12">
-        <f t="shared" ref="M44" si="57">H44/H$12</f>
-        <v>1</v>
-      </c>
-      <c r="N44" s="12">
-        <f t="shared" ref="N44" si="58">I44/I$12</f>
+      <c r="M44" s="11">
+        <f t="shared" ref="M44" si="60">H44/H$12</f>
+        <v>1</v>
+      </c>
+      <c r="N44" s="11">
+        <f t="shared" ref="N44" si="61">I44/I$12</f>
         <v>0.37735849056603776</v>
       </c>
     </row>
-    <row r="45" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="45" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="F45" t="s">
         <v>15</v>
       </c>
       <c r="G45" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>464.15094339622641</v>
       </c>
       <c r="H45" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>1200</v>
       </c>
       <c r="I45" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>113.20754716981132</v>
       </c>
       <c r="J45" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>1777.3584905660377</v>
       </c>
-      <c r="L45" s="12">
+      <c r="L45" s="11">
         <f>G45/G$13</f>
         <v>0.66307277628032346</v>
       </c>
-      <c r="M45" s="12">
-        <f t="shared" ref="M45" si="59">H45/H$13</f>
-        <v>1</v>
-      </c>
-      <c r="N45" s="12">
-        <f t="shared" ref="N45" si="60">I45/I$13</f>
+      <c r="M45" s="11">
+        <f t="shared" ref="M45" si="62">H45/H$13</f>
+        <v>1</v>
+      </c>
+      <c r="N45" s="11">
+        <f t="shared" ref="N45" si="63">I45/I$13</f>
         <v>0.28301886792452829</v>
       </c>
     </row>
-    <row r="46" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="46" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="F46" t="s">
         <v>16</v>
       </c>
       <c r="G46" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>889.62264150943406</v>
       </c>
       <c r="H46" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>2300</v>
       </c>
       <c r="I46" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>216.98113207547172</v>
       </c>
       <c r="J46" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>3406.6037735849059</v>
       </c>
-      <c r="L46" s="12">
+      <c r="L46" s="11">
         <f>G46/G$14</f>
         <v>1.2708894878706201</v>
       </c>
-      <c r="M46" s="12">
-        <f t="shared" ref="M46" si="61">H46/H$14</f>
-        <v>1</v>
-      </c>
-      <c r="N46" s="12">
-        <f t="shared" ref="N46" si="62">I46/I$14</f>
+      <c r="M46" s="11">
+        <f t="shared" ref="M46" si="64">H46/H$14</f>
+        <v>1</v>
+      </c>
+      <c r="N46" s="11">
+        <f t="shared" ref="N46" si="65">I46/I$14</f>
         <v>0.47169811320754723</v>
       </c>
-      <c r="P46" s="10">
+      <c r="P46" s="9">
         <f>1/$L46*L46</f>
         <v>1</v>
       </c>
-      <c r="Q46" s="10">
-        <f t="shared" ref="Q46:Q48" si="63">1/$L46*M46</f>
+      <c r="Q46" s="9">
+        <f t="shared" ref="Q46:Q48" si="66">1/$L46*M46</f>
         <v>0.78685047720042411</v>
       </c>
-      <c r="R46" s="10">
-        <f t="shared" ref="R46:R48" si="64">1/$L46*N46</f>
+      <c r="R46" s="9">
+        <f t="shared" ref="R46:R48" si="67">1/$L46*N46</f>
         <v>0.37115588547189821</v>
       </c>
     </row>
-    <row r="47" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="47" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="F47" t="s">
         <v>20</v>
       </c>
       <c r="G47" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>192.2358490566038</v>
       </c>
       <c r="H47" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>497.00000000000006</v>
       </c>
       <c r="I47" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>46.886792452830193</v>
       </c>
       <c r="J47" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>736.12264150943406</v>
       </c>
-      <c r="L47" s="12">
+      <c r="L47" s="11">
         <f>G47/G$15</f>
         <v>1.779961565338924</v>
       </c>
-      <c r="M47" s="12">
-        <f t="shared" ref="M47" si="65">H47/H$15</f>
+      <c r="M47" s="11">
+        <f t="shared" ref="M47" si="68">H47/H$15</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="N47" s="12">
-        <f t="shared" ref="N47" si="66">I47/I$15</f>
+      <c r="N47" s="11">
+        <f t="shared" ref="N47" si="69">I47/I$15</f>
         <v>0.47843665768194077</v>
       </c>
-      <c r="P47" s="10">
+      <c r="P47" s="9">
         <f>1/$L47*L47</f>
         <v>1</v>
       </c>
-      <c r="Q47" s="10">
-        <f t="shared" si="63"/>
+      <c r="Q47" s="9">
+        <f t="shared" si="66"/>
         <v>0.56180988369239837</v>
       </c>
-      <c r="R47" s="10">
-        <f t="shared" si="64"/>
+      <c r="R47" s="9">
+        <f t="shared" si="67"/>
         <v>0.26879044300647092</v>
       </c>
     </row>
-    <row r="48" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="48" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="F48" t="s">
         <v>21</v>
       </c>
       <c r="G48" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>270.75471698113211</v>
       </c>
       <c r="H48" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>700</v>
       </c>
       <c r="I48" s="5">
-        <f t="shared" si="49"/>
+        <f t="shared" si="51"/>
         <v>66.037735849056602</v>
       </c>
       <c r="J48" s="5">
-        <f t="shared" si="52"/>
+        <f t="shared" si="55"/>
         <v>1036.7924528301887</v>
       </c>
-      <c r="L48" s="12">
+      <c r="L48" s="11">
         <f>G48/G$16</f>
         <v>1.0027952480782671</v>
       </c>
-      <c r="M48" s="12">
-        <f t="shared" ref="M48" si="67">H48/H$16</f>
-        <v>1</v>
-      </c>
-      <c r="N48" s="12">
-        <f t="shared" ref="N48" si="68">I48/I$16</f>
+      <c r="M48" s="11">
+        <f t="shared" ref="M48" si="70">H48/H$16</f>
+        <v>1</v>
+      </c>
+      <c r="N48" s="11">
+        <f t="shared" ref="N48" si="71">I48/I$16</f>
         <v>0.26415094339622641</v>
       </c>
-      <c r="P48" s="10">
+      <c r="P48" s="9">
         <f>1/$L48*L48</f>
         <v>1</v>
       </c>
-      <c r="Q48" s="10">
-        <f t="shared" si="63"/>
+      <c r="Q48" s="9">
+        <f t="shared" si="66"/>
         <v>0.99721254355400679</v>
       </c>
-      <c r="R48" s="10">
-        <f t="shared" si="64"/>
+      <c r="R48" s="9">
+        <f t="shared" si="67"/>
         <v>0.26341463414634142</v>
       </c>
     </row>
@@ -2206,16 +2324,16 @@
       <c r="F51" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="G51" s="11">
+      <c r="G51" s="10">
         <f>G7/$J$7</f>
         <v>0.3</v>
       </c>
-      <c r="H51" s="11">
-        <f t="shared" ref="H51:I51" si="69">H7/$J$7</f>
+      <c r="H51" s="10">
+        <f t="shared" ref="H51:I51" si="72">H7/$J$7</f>
         <v>0.6</v>
       </c>
-      <c r="I51" s="11">
-        <f t="shared" si="69"/>
+      <c r="I51" s="10">
+        <f t="shared" si="72"/>
         <v>0.1</v>
       </c>
       <c r="J51" s="3"/>
@@ -2225,11 +2343,11 @@
         <v>11</v>
       </c>
       <c r="G52" s="5">
-        <f t="shared" ref="G52:I59" si="70">G$51*$J52</f>
+        <f t="shared" ref="G52:I59" si="73">G$51*$J52</f>
         <v>900</v>
       </c>
       <c r="H52" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>1800</v>
       </c>
       <c r="I52" s="5">
@@ -2240,28 +2358,28 @@
         <f>H9/$H$51</f>
         <v>3000</v>
       </c>
-      <c r="L52" s="12">
+      <c r="L52" s="11">
         <f>G52/G$9</f>
         <v>1.2587412587412588</v>
       </c>
-      <c r="M52" s="12">
-        <f t="shared" ref="M52" si="71">H52/H$9</f>
-        <v>1</v>
-      </c>
-      <c r="N52" s="12">
-        <f t="shared" ref="N52" si="72">I52/I$9</f>
+      <c r="M52" s="11">
+        <f t="shared" ref="M52" si="74">H52/H$9</f>
+        <v>1</v>
+      </c>
+      <c r="N52" s="11">
+        <f t="shared" ref="N52" si="75">I52/I$9</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P52" s="10">
+      <c r="P52" s="9">
         <f>1/$L52*L52</f>
         <v>1</v>
       </c>
-      <c r="Q52" s="10">
-        <f t="shared" ref="Q52:Q53" si="73">1/$L52*M52</f>
+      <c r="Q52" s="9">
+        <f t="shared" ref="Q52:Q53" si="76">1/$L52*M52</f>
         <v>0.7944444444444444</v>
       </c>
-      <c r="R52" s="10">
-        <f t="shared" ref="R52:R53" si="74">1/$L52*N52</f>
+      <c r="R52" s="9">
+        <f t="shared" ref="R52:R53" si="77">1/$L52*N52</f>
         <v>0.66203703703703698</v>
       </c>
     </row>
@@ -2270,11 +2388,11 @@
         <v>12</v>
       </c>
       <c r="G53" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>165</v>
       </c>
       <c r="H53" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>330</v>
       </c>
       <c r="I53" s="5">
@@ -2282,31 +2400,31 @@
         <v>55</v>
       </c>
       <c r="J53" s="5">
-        <f t="shared" ref="J53:J59" si="75">H10/$H$51</f>
+        <f t="shared" ref="J53:J59" si="78">H10/$H$51</f>
         <v>550</v>
       </c>
-      <c r="L53" s="12">
+      <c r="L53" s="11">
         <f>G53/G$10</f>
         <v>1.1785714285714286</v>
       </c>
-      <c r="M53" s="12">
-        <f t="shared" ref="M53" si="76">H53/H$10</f>
-        <v>1</v>
-      </c>
-      <c r="N53" s="12">
-        <f t="shared" ref="N53" si="77">I53/I$10</f>
+      <c r="M53" s="11">
+        <f t="shared" ref="M53" si="79">H53/H$10</f>
+        <v>1</v>
+      </c>
+      <c r="N53" s="11">
+        <f t="shared" ref="N53" si="80">I53/I$10</f>
         <v>0.7857142857142857</v>
       </c>
-      <c r="P53" s="10">
+      <c r="P53" s="9">
         <f>1/$L53*L53</f>
         <v>1</v>
       </c>
-      <c r="Q53" s="10">
-        <f t="shared" si="73"/>
+      <c r="Q53" s="9">
+        <f t="shared" si="76"/>
         <v>0.84848484848484851</v>
       </c>
-      <c r="R53" s="10">
-        <f t="shared" si="74"/>
+      <c r="R53" s="9">
+        <f t="shared" si="77"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
@@ -2315,31 +2433,31 @@
         <v>13</v>
       </c>
       <c r="G54" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>175</v>
       </c>
       <c r="H54" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>350</v>
       </c>
       <c r="I54" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>58.333333333333343</v>
       </c>
       <c r="J54" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>583.33333333333337</v>
       </c>
-      <c r="L54" s="12">
+      <c r="L54" s="11">
         <f>G54/G$11</f>
         <v>0.7</v>
       </c>
-      <c r="M54" s="12">
-        <f t="shared" ref="M54" si="78">H54/H$11</f>
-        <v>1</v>
-      </c>
-      <c r="N54" s="12">
-        <f t="shared" ref="N54" si="79">I54/I$11</f>
+      <c r="M54" s="11">
+        <f t="shared" ref="M54" si="81">H54/H$11</f>
+        <v>1</v>
+      </c>
+      <c r="N54" s="11">
+        <f t="shared" ref="N54" si="82">I54/I$11</f>
         <v>0.72916666666666674</v>
       </c>
     </row>
@@ -2348,43 +2466,43 @@
         <v>14</v>
       </c>
       <c r="G55" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>800.00000000000011</v>
       </c>
       <c r="H55" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>1600.0000000000002</v>
       </c>
       <c r="I55" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>266.66666666666669</v>
       </c>
       <c r="J55" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>2666.666666666667</v>
       </c>
-      <c r="L55" s="12">
+      <c r="L55" s="11">
         <f>G55/G$12</f>
         <v>1.142857142857143</v>
       </c>
-      <c r="M55" s="12">
-        <f t="shared" ref="M55" si="80">H55/H$12</f>
+      <c r="M55" s="11">
+        <f t="shared" ref="M55" si="83">H55/H$12</f>
         <v>1.0000000000000002</v>
       </c>
-      <c r="N55" s="12">
-        <f t="shared" ref="N55" si="81">I55/I$12</f>
+      <c r="N55" s="11">
+        <f t="shared" ref="N55" si="84">I55/I$12</f>
         <v>0.66666666666666674</v>
       </c>
-      <c r="P55" s="10">
+      <c r="P55" s="9">
         <f>1/$L55*L55</f>
         <v>1</v>
       </c>
-      <c r="Q55" s="10">
-        <f t="shared" ref="Q55" si="82">1/$L55*M55</f>
+      <c r="Q55" s="9">
+        <f t="shared" ref="Q55" si="85">1/$L55*M55</f>
         <v>0.87500000000000011</v>
       </c>
-      <c r="R55" s="10">
-        <f t="shared" ref="R55" si="83">1/$L55*N55</f>
+      <c r="R55" s="9">
+        <f t="shared" ref="R55" si="86">1/$L55*N55</f>
         <v>0.58333333333333337</v>
       </c>
     </row>
@@ -2393,31 +2511,31 @@
         <v>15</v>
       </c>
       <c r="G56" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>600</v>
       </c>
       <c r="H56" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>1200</v>
       </c>
       <c r="I56" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>200</v>
       </c>
       <c r="J56" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>2000</v>
       </c>
-      <c r="L56" s="12">
+      <c r="L56" s="11">
         <f>G56/G$13</f>
         <v>0.8571428571428571</v>
       </c>
-      <c r="M56" s="12">
-        <f t="shared" ref="M56" si="84">H56/H$13</f>
-        <v>1</v>
-      </c>
-      <c r="N56" s="12">
-        <f t="shared" ref="N56" si="85">I56/I$13</f>
+      <c r="M56" s="11">
+        <f t="shared" ref="M56" si="87">H56/H$13</f>
+        <v>1</v>
+      </c>
+      <c r="N56" s="11">
+        <f t="shared" ref="N56" si="88">I56/I$13</f>
         <v>0.5</v>
       </c>
     </row>
@@ -2426,43 +2544,43 @@
         <v>16</v>
       </c>
       <c r="G57" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>1150</v>
       </c>
       <c r="H57" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>2300</v>
       </c>
       <c r="I57" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>383.33333333333337</v>
       </c>
       <c r="J57" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>3833.3333333333335</v>
       </c>
-      <c r="L57" s="12">
+      <c r="L57" s="11">
         <f>G57/G$14</f>
         <v>1.6428571428571428</v>
       </c>
-      <c r="M57" s="12">
-        <f t="shared" ref="M57" si="86">H57/H$14</f>
-        <v>1</v>
-      </c>
-      <c r="N57" s="12">
-        <f t="shared" ref="N57" si="87">I57/I$14</f>
+      <c r="M57" s="11">
+        <f t="shared" ref="M57" si="89">H57/H$14</f>
+        <v>1</v>
+      </c>
+      <c r="N57" s="11">
+        <f t="shared" ref="N57" si="90">I57/I$14</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="P57" s="10">
+      <c r="P57" s="9">
         <f>1/$L57*L57</f>
         <v>1</v>
       </c>
-      <c r="Q57" s="10">
-        <f t="shared" ref="Q57:Q59" si="88">1/$L57*M57</f>
+      <c r="Q57" s="9">
+        <f t="shared" ref="Q57:Q59" si="91">1/$L57*M57</f>
         <v>0.60869565217391308</v>
       </c>
-      <c r="R57" s="10">
-        <f t="shared" ref="R57:R59" si="89">1/$L57*N57</f>
+      <c r="R57" s="9">
+        <f t="shared" ref="R57:R59" si="92">1/$L57*N57</f>
         <v>0.50724637681159424</v>
       </c>
     </row>
@@ -2471,43 +2589,43 @@
         <v>20</v>
       </c>
       <c r="G58" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>248.5</v>
       </c>
       <c r="H58" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>497</v>
       </c>
       <c r="I58" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>82.833333333333343</v>
       </c>
       <c r="J58" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>828.33333333333337</v>
       </c>
-      <c r="L58" s="12">
+      <c r="L58" s="11">
         <f>G58/G$15</f>
         <v>2.300925925925926</v>
       </c>
-      <c r="M58" s="12">
-        <f t="shared" ref="M58" si="90">H58/H$15</f>
-        <v>1</v>
-      </c>
-      <c r="N58" s="12">
-        <f t="shared" ref="N58" si="91">I58/I$15</f>
+      <c r="M58" s="11">
+        <f t="shared" ref="M58" si="93">H58/H$15</f>
+        <v>1</v>
+      </c>
+      <c r="N58" s="11">
+        <f t="shared" ref="N58" si="94">I58/I$15</f>
         <v>0.84523809523809534</v>
       </c>
-      <c r="P58" s="10">
+      <c r="P58" s="9">
         <f>1/$L58*L58</f>
         <v>1</v>
       </c>
-      <c r="Q58" s="10">
-        <f t="shared" si="88"/>
+      <c r="Q58" s="9">
+        <f t="shared" si="91"/>
         <v>0.43460764587525147</v>
       </c>
-      <c r="R58" s="10">
-        <f t="shared" si="89"/>
+      <c r="R58" s="9">
+        <f t="shared" si="92"/>
         <v>0.36734693877551022</v>
       </c>
     </row>
@@ -2516,71 +2634,44 @@
         <v>21</v>
       </c>
       <c r="G59" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>350</v>
       </c>
       <c r="H59" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>700</v>
       </c>
       <c r="I59" s="5">
-        <f t="shared" si="70"/>
+        <f t="shared" si="73"/>
         <v>116.66666666666669</v>
       </c>
       <c r="J59" s="5">
-        <f t="shared" si="75"/>
+        <f t="shared" si="78"/>
         <v>1166.6666666666667</v>
       </c>
-      <c r="L59" s="12">
+      <c r="L59" s="11">
         <f>G59/G$16</f>
         <v>1.2962962962962963</v>
       </c>
-      <c r="M59" s="12">
-        <f t="shared" ref="M59" si="92">H59/H$16</f>
-        <v>1</v>
-      </c>
-      <c r="N59" s="12">
-        <f t="shared" ref="N59" si="93">I59/I$16</f>
+      <c r="M59" s="11">
+        <f t="shared" ref="M59" si="95">H59/H$16</f>
+        <v>1</v>
+      </c>
+      <c r="N59" s="11">
+        <f t="shared" ref="N59" si="96">I59/I$16</f>
         <v>0.46666666666666673</v>
       </c>
-      <c r="P59" s="10">
+      <c r="P59" s="9">
         <f>1/$L59*L59</f>
         <v>1</v>
       </c>
-      <c r="Q59" s="10">
-        <f t="shared" si="88"/>
+      <c r="Q59" s="9">
+        <f t="shared" si="91"/>
         <v>0.77142857142857146</v>
       </c>
-      <c r="R59" s="10">
-        <f t="shared" si="89"/>
+      <c r="R59" s="9">
+        <f t="shared" si="92"/>
         <v>0.36000000000000004</v>
-      </c>
-    </row>
-    <row r="63" spans="6:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="F63" t="s">
-        <v>39</v>
-      </c>
-      <c r="G63" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="64" spans="6:18" x14ac:dyDescent="0.55000000000000004">
-      <c r="F64">
-        <f>10/((G64/0.895)-1)</f>
-        <v>3.7214137214137217</v>
-      </c>
-      <c r="G64">
-        <v>3.3</v>
-      </c>
-    </row>
-    <row r="65" spans="6:7" x14ac:dyDescent="0.55000000000000004">
-      <c r="F65">
-        <f>3.9</f>
-        <v>3.9</v>
-      </c>
-      <c r="G65">
-        <f>179*(F65+10)/(200*F65)</f>
-        <v>3.1898717948717947</v>
       </c>
     </row>
   </sheetData>

--- a/Calculations.xlsx
+++ b/Calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Embedded\AnalogueWallClock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1920CC3C-5244-4BA9-B89B-886D0B714D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{886948E3-D679-4EA4-8D2D-C6758A4AC7E5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{1830B923-2CF4-4331-BBA5-F160D5A4825B}"/>
   </bookViews>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="103" uniqueCount="46">
   <si>
     <t>VFr</t>
   </si>
@@ -248,10 +248,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -600,8 +600,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7721304C-C0A1-4F4D-BBF1-C91133FA344E}">
   <dimension ref="A1:W59"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+    <sheetView tabSelected="1" topLeftCell="A19" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="E49" sqref="E49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -615,12 +615,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="G2" s="1" t="s">
@@ -1982,12 +1982,12 @@
       <c r="C41">
         <v>1.95</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="12">
         <v>8.5000000000000006E-3</v>
       </c>
       <c r="E41" s="4">
-        <f>C41/D41</f>
-        <v>229.41176470588232</v>
+        <f>(B41-C41)/D41</f>
+        <v>147.05882352941177</v>
       </c>
       <c r="F41" t="s">
         <v>11</v>
@@ -2031,12 +2031,12 @@
       <c r="C42">
         <v>3.1</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="12">
         <v>0.01</v>
       </c>
       <c r="E42" s="4">
-        <f t="shared" ref="E42:E43" si="54">C42/D42</f>
-        <v>310</v>
+        <f t="shared" ref="E42:E43" si="54">(B42-C42)/D42</f>
+        <v>149.99999999999994</v>
       </c>
       <c r="F42" t="s">
         <v>12</v>
@@ -2080,12 +2080,12 @@
       <c r="C43">
         <v>2.95</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D43" s="12">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E43" s="4">
         <f t="shared" si="54"/>
-        <v>590</v>
+        <v>409.99999999999994</v>
       </c>
       <c r="F43" t="s">
         <v>13</v>
@@ -2186,6 +2186,21 @@
       </c>
     </row>
     <row r="46" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A46" t="s">
+        <v>39</v>
+      </c>
+      <c r="B46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46" t="s">
+        <v>44</v>
+      </c>
+      <c r="D46" t="s">
+        <v>45</v>
+      </c>
+      <c r="E46" t="s">
+        <v>4</v>
+      </c>
       <c r="F46" t="s">
         <v>16</v>
       </c>
@@ -2231,6 +2246,22 @@
       </c>
     </row>
     <row r="47" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A47" t="s">
+        <v>40</v>
+      </c>
+      <c r="B47">
+        <v>5</v>
+      </c>
+      <c r="C47">
+        <v>1.95</v>
+      </c>
+      <c r="D47" s="12">
+        <v>8.5000000000000006E-3</v>
+      </c>
+      <c r="E47" s="4">
+        <f>(B47-C47)/D47</f>
+        <v>358.82352941176464</v>
+      </c>
       <c r="F47" t="s">
         <v>20</v>
       </c>
@@ -2276,6 +2307,22 @@
       </c>
     </row>
     <row r="48" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A48" t="s">
+        <v>41</v>
+      </c>
+      <c r="B48">
+        <v>5</v>
+      </c>
+      <c r="C48">
+        <v>3.1</v>
+      </c>
+      <c r="D48" s="12">
+        <v>0.01</v>
+      </c>
+      <c r="E48" s="4">
+        <f t="shared" ref="E48:E49" si="70">(B48-C48)/D48</f>
+        <v>190</v>
+      </c>
       <c r="F48" t="s">
         <v>21</v>
       </c>
@@ -2300,11 +2347,11 @@
         <v>1.0027952480782671</v>
       </c>
       <c r="M48" s="11">
-        <f t="shared" ref="M48" si="70">H48/H$16</f>
+        <f t="shared" ref="M48" si="71">H48/H$16</f>
         <v>1</v>
       </c>
       <c r="N48" s="11">
-        <f t="shared" ref="N48" si="71">I48/I$16</f>
+        <f t="shared" ref="N48" si="72">I48/I$16</f>
         <v>0.26415094339622641</v>
       </c>
       <c r="P48" s="9">
@@ -2320,7 +2367,25 @@
         <v>0.26341463414634142</v>
       </c>
     </row>
-    <row r="51" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="49" spans="1:18" x14ac:dyDescent="0.55000000000000004">
+      <c r="A49" t="s">
+        <v>42</v>
+      </c>
+      <c r="B49">
+        <v>5</v>
+      </c>
+      <c r="C49">
+        <v>2.95</v>
+      </c>
+      <c r="D49" s="12">
+        <v>5.0000000000000001E-3</v>
+      </c>
+      <c r="E49" s="4">
+        <f t="shared" si="70"/>
+        <v>409.99999999999994</v>
+      </c>
+    </row>
+    <row r="51" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="F51" s="1" t="s">
         <v>3</v>
       </c>
@@ -2329,25 +2394,25 @@
         <v>0.3</v>
       </c>
       <c r="H51" s="10">
-        <f t="shared" ref="H51:I51" si="72">H7/$J$7</f>
+        <f t="shared" ref="H51:I51" si="73">H7/$J$7</f>
         <v>0.6</v>
       </c>
       <c r="I51" s="10">
-        <f t="shared" si="72"/>
+        <f t="shared" si="73"/>
         <v>0.1</v>
       </c>
       <c r="J51" s="3"/>
     </row>
-    <row r="52" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="52" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="F52" t="s">
         <v>11</v>
       </c>
       <c r="G52" s="5">
-        <f t="shared" ref="G52:I59" si="73">G$51*$J52</f>
+        <f t="shared" ref="G52:I59" si="74">G$51*$J52</f>
         <v>900</v>
       </c>
       <c r="H52" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>1800</v>
       </c>
       <c r="I52" s="5">
@@ -2363,11 +2428,11 @@
         <v>1.2587412587412588</v>
       </c>
       <c r="M52" s="11">
-        <f t="shared" ref="M52" si="74">H52/H$9</f>
+        <f t="shared" ref="M52" si="75">H52/H$9</f>
         <v>1</v>
       </c>
       <c r="N52" s="11">
-        <f t="shared" ref="N52" si="75">I52/I$9</f>
+        <f t="shared" ref="N52" si="76">I52/I$9</f>
         <v>0.83333333333333337</v>
       </c>
       <c r="P52" s="9">
@@ -2375,24 +2440,24 @@
         <v>1</v>
       </c>
       <c r="Q52" s="9">
-        <f t="shared" ref="Q52:Q53" si="76">1/$L52*M52</f>
+        <f t="shared" ref="Q52:Q53" si="77">1/$L52*M52</f>
         <v>0.7944444444444444</v>
       </c>
       <c r="R52" s="9">
-        <f t="shared" ref="R52:R53" si="77">1/$L52*N52</f>
+        <f t="shared" ref="R52:R53" si="78">1/$L52*N52</f>
         <v>0.66203703703703698</v>
       </c>
     </row>
-    <row r="53" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="53" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="F53" t="s">
         <v>12</v>
       </c>
       <c r="G53" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>165</v>
       </c>
       <c r="H53" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>330</v>
       </c>
       <c r="I53" s="5">
@@ -2400,7 +2465,7 @@
         <v>55</v>
       </c>
       <c r="J53" s="5">
-        <f t="shared" ref="J53:J59" si="78">H10/$H$51</f>
+        <f t="shared" ref="J53:J59" si="79">H10/$H$51</f>
         <v>550</v>
       </c>
       <c r="L53" s="11">
@@ -2408,11 +2473,11 @@
         <v>1.1785714285714286</v>
       </c>
       <c r="M53" s="11">
-        <f t="shared" ref="M53" si="79">H53/H$10</f>
+        <f t="shared" ref="M53" si="80">H53/H$10</f>
         <v>1</v>
       </c>
       <c r="N53" s="11">
-        <f t="shared" ref="N53" si="80">I53/I$10</f>
+        <f t="shared" ref="N53" si="81">I53/I$10</f>
         <v>0.7857142857142857</v>
       </c>
       <c r="P53" s="9">
@@ -2420,32 +2485,32 @@
         <v>1</v>
       </c>
       <c r="Q53" s="9">
-        <f t="shared" si="76"/>
+        <f t="shared" si="77"/>
         <v>0.84848484848484851</v>
       </c>
       <c r="R53" s="9">
-        <f t="shared" si="77"/>
+        <f t="shared" si="78"/>
         <v>0.66666666666666663</v>
       </c>
     </row>
-    <row r="54" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="54" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="F54" t="s">
         <v>13</v>
       </c>
       <c r="G54" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>175</v>
       </c>
       <c r="H54" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>350</v>
       </c>
       <c r="I54" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>58.333333333333343</v>
       </c>
       <c r="J54" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>583.33333333333337</v>
       </c>
       <c r="L54" s="11">
@@ -2453,32 +2518,32 @@
         <v>0.7</v>
       </c>
       <c r="M54" s="11">
-        <f t="shared" ref="M54" si="81">H54/H$11</f>
+        <f t="shared" ref="M54" si="82">H54/H$11</f>
         <v>1</v>
       </c>
       <c r="N54" s="11">
-        <f t="shared" ref="N54" si="82">I54/I$11</f>
+        <f t="shared" ref="N54" si="83">I54/I$11</f>
         <v>0.72916666666666674</v>
       </c>
     </row>
-    <row r="55" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="55" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="F55" t="s">
         <v>14</v>
       </c>
       <c r="G55" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>800.00000000000011</v>
       </c>
       <c r="H55" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>1600.0000000000002</v>
       </c>
       <c r="I55" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>266.66666666666669</v>
       </c>
       <c r="J55" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>2666.666666666667</v>
       </c>
       <c r="L55" s="11">
@@ -2486,11 +2551,11 @@
         <v>1.142857142857143</v>
       </c>
       <c r="M55" s="11">
-        <f t="shared" ref="M55" si="83">H55/H$12</f>
+        <f t="shared" ref="M55" si="84">H55/H$12</f>
         <v>1.0000000000000002</v>
       </c>
       <c r="N55" s="11">
-        <f t="shared" ref="N55" si="84">I55/I$12</f>
+        <f t="shared" ref="N55" si="85">I55/I$12</f>
         <v>0.66666666666666674</v>
       </c>
       <c r="P55" s="9">
@@ -2498,32 +2563,32 @@
         <v>1</v>
       </c>
       <c r="Q55" s="9">
-        <f t="shared" ref="Q55" si="85">1/$L55*M55</f>
+        <f t="shared" ref="Q55" si="86">1/$L55*M55</f>
         <v>0.87500000000000011</v>
       </c>
       <c r="R55" s="9">
-        <f t="shared" ref="R55" si="86">1/$L55*N55</f>
+        <f t="shared" ref="R55" si="87">1/$L55*N55</f>
         <v>0.58333333333333337</v>
       </c>
     </row>
-    <row r="56" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="56" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="F56" t="s">
         <v>15</v>
       </c>
       <c r="G56" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>600</v>
       </c>
       <c r="H56" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>1200</v>
       </c>
       <c r="I56" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>200</v>
       </c>
       <c r="J56" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>2000</v>
       </c>
       <c r="L56" s="11">
@@ -2531,32 +2596,32 @@
         <v>0.8571428571428571</v>
       </c>
       <c r="M56" s="11">
-        <f t="shared" ref="M56" si="87">H56/H$13</f>
+        <f t="shared" ref="M56" si="88">H56/H$13</f>
         <v>1</v>
       </c>
       <c r="N56" s="11">
-        <f t="shared" ref="N56" si="88">I56/I$13</f>
+        <f t="shared" ref="N56" si="89">I56/I$13</f>
         <v>0.5</v>
       </c>
     </row>
-    <row r="57" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="57" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="F57" t="s">
         <v>16</v>
       </c>
       <c r="G57" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>1150</v>
       </c>
       <c r="H57" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>2300</v>
       </c>
       <c r="I57" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>383.33333333333337</v>
       </c>
       <c r="J57" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>3833.3333333333335</v>
       </c>
       <c r="L57" s="11">
@@ -2564,11 +2629,11 @@
         <v>1.6428571428571428</v>
       </c>
       <c r="M57" s="11">
-        <f t="shared" ref="M57" si="89">H57/H$14</f>
+        <f t="shared" ref="M57" si="90">H57/H$14</f>
         <v>1</v>
       </c>
       <c r="N57" s="11">
-        <f t="shared" ref="N57" si="90">I57/I$14</f>
+        <f t="shared" ref="N57" si="91">I57/I$14</f>
         <v>0.83333333333333337</v>
       </c>
       <c r="P57" s="9">
@@ -2576,32 +2641,32 @@
         <v>1</v>
       </c>
       <c r="Q57" s="9">
-        <f t="shared" ref="Q57:Q59" si="91">1/$L57*M57</f>
+        <f t="shared" ref="Q57:Q59" si="92">1/$L57*M57</f>
         <v>0.60869565217391308</v>
       </c>
       <c r="R57" s="9">
-        <f t="shared" ref="R57:R59" si="92">1/$L57*N57</f>
+        <f t="shared" ref="R57:R59" si="93">1/$L57*N57</f>
         <v>0.50724637681159424</v>
       </c>
     </row>
-    <row r="58" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="58" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="F58" t="s">
         <v>20</v>
       </c>
       <c r="G58" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>248.5</v>
       </c>
       <c r="H58" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>497</v>
       </c>
       <c r="I58" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>82.833333333333343</v>
       </c>
       <c r="J58" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>828.33333333333337</v>
       </c>
       <c r="L58" s="11">
@@ -2609,11 +2674,11 @@
         <v>2.300925925925926</v>
       </c>
       <c r="M58" s="11">
-        <f t="shared" ref="M58" si="93">H58/H$15</f>
+        <f t="shared" ref="M58" si="94">H58/H$15</f>
         <v>1</v>
       </c>
       <c r="N58" s="11">
-        <f t="shared" ref="N58" si="94">I58/I$15</f>
+        <f t="shared" ref="N58" si="95">I58/I$15</f>
         <v>0.84523809523809534</v>
       </c>
       <c r="P58" s="9">
@@ -2621,32 +2686,32 @@
         <v>1</v>
       </c>
       <c r="Q58" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0.43460764587525147</v>
       </c>
       <c r="R58" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0.36734693877551022</v>
       </c>
     </row>
-    <row r="59" spans="6:18" x14ac:dyDescent="0.55000000000000004">
+    <row r="59" spans="1:18" x14ac:dyDescent="0.55000000000000004">
       <c r="F59" t="s">
         <v>21</v>
       </c>
       <c r="G59" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>350</v>
       </c>
       <c r="H59" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>700</v>
       </c>
       <c r="I59" s="5">
-        <f t="shared" si="73"/>
+        <f t="shared" si="74"/>
         <v>116.66666666666669</v>
       </c>
       <c r="J59" s="5">
-        <f t="shared" si="78"/>
+        <f t="shared" si="79"/>
         <v>1166.6666666666667</v>
       </c>
       <c r="L59" s="11">
@@ -2654,11 +2719,11 @@
         <v>1.2962962962962963</v>
       </c>
       <c r="M59" s="11">
-        <f t="shared" ref="M59" si="95">H59/H$16</f>
+        <f t="shared" ref="M59" si="96">H59/H$16</f>
         <v>1</v>
       </c>
       <c r="N59" s="11">
-        <f t="shared" ref="N59" si="96">I59/I$16</f>
+        <f t="shared" ref="N59" si="97">I59/I$16</f>
         <v>0.46666666666666673</v>
       </c>
       <c r="P59" s="9">
@@ -2666,11 +2731,11 @@
         <v>1</v>
       </c>
       <c r="Q59" s="9">
-        <f t="shared" si="91"/>
+        <f t="shared" si="92"/>
         <v>0.77142857142857146</v>
       </c>
       <c r="R59" s="9">
-        <f t="shared" si="92"/>
+        <f t="shared" si="93"/>
         <v>0.36000000000000004</v>
       </c>
     </row>

--- a/Calculations.xlsx
+++ b/Calculations.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Embedded\AnalogueWallClock\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1920CC3C-5244-4BA9-B89B-886D0B714D98}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5FAA7C15-F366-4C33-A5D7-BADDB5F9B1EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12552" xr2:uid="{1830B923-2CF4-4331-BBA5-F160D5A4825B}"/>
   </bookViews>
@@ -248,10 +248,10 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1"/>
     <xf numFmtId="10" fontId="2" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="2" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="11" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -601,7 +601,7 @@
   <dimension ref="A1:W59"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A16" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C44" sqref="C44"/>
+      <selection activeCell="E41" sqref="E41:E43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
@@ -615,12 +615,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:21" x14ac:dyDescent="0.55000000000000004">
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="H1" s="12"/>
-      <c r="I1" s="12"/>
-      <c r="J1" s="12"/>
+      <c r="H1" s="13"/>
+      <c r="I1" s="13"/>
+      <c r="J1" s="13"/>
     </row>
     <row r="2" spans="1:21" x14ac:dyDescent="0.55000000000000004">
       <c r="G2" s="1" t="s">
@@ -1982,12 +1982,12 @@
       <c r="C41">
         <v>1.95</v>
       </c>
-      <c r="D41" s="13">
+      <c r="D41" s="12">
         <v>8.5000000000000006E-3</v>
       </c>
       <c r="E41" s="4">
-        <f>C41/D41</f>
-        <v>229.41176470588232</v>
+        <f>(B41-C41)/D41</f>
+        <v>147.05882352941177</v>
       </c>
       <c r="F41" t="s">
         <v>11</v>
@@ -2031,12 +2031,12 @@
       <c r="C42">
         <v>3.1</v>
       </c>
-      <c r="D42" s="13">
+      <c r="D42" s="12">
         <v>0.01</v>
       </c>
       <c r="E42" s="4">
-        <f t="shared" ref="E42:E43" si="54">C42/D42</f>
-        <v>310</v>
+        <f t="shared" ref="E42:E43" si="54">(B42-C42)/D42</f>
+        <v>149.99999999999994</v>
       </c>
       <c r="F42" t="s">
         <v>12</v>
@@ -2080,12 +2080,12 @@
       <c r="C43">
         <v>2.95</v>
       </c>
-      <c r="D43" s="13">
+      <c r="D43" s="12">
         <v>5.0000000000000001E-3</v>
       </c>
       <c r="E43" s="4">
         <f t="shared" si="54"/>
-        <v>590</v>
+        <v>409.99999999999994</v>
       </c>
       <c r="F43" t="s">
         <v>13</v>
